--- a/AAII_Financials/Yearly/GO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GO_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>GO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E7" s="2">
         <v>43463</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43099</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,24 +705,27 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2559600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2287700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2075500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1831500</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -732,24 +735,27 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1772500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1592300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1443600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1270400</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,24 +765,27 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>787100</v>
+      </c>
+      <c r="E10" s="3">
         <v>695400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>631900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>561200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,23 +869,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E14" s="3">
         <v>5300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -880,24 +899,27 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E15" s="3">
         <v>45400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>43200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>37200</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,23 +943,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2496900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2210400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1767500</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -944,24 +970,27 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E18" s="3">
         <v>77200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>75500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>64100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,22 +1017,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-55400</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>-49700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-47100</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>124300</v>
+        <v>114800</v>
       </c>
       <c r="E21" s="3">
-        <v>118600</v>
+        <v>68900</v>
       </c>
       <c r="F21" s="3">
-        <v>101200</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>68900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>54100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,20 +1074,23 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>49700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>47100</v>
+        <v>47900</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1065,24 +1104,27 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E23" s="3">
         <v>21900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16900</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,24 +1134,27 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>6000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6700</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,24 +1194,27 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E26" s="3">
         <v>15900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10200</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,24 +1224,27 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E27" s="3">
         <v>15900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10200</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,23 +1374,26 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>55400</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>49700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>47100</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1335,24 +1404,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E33" s="3">
         <v>15900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10200</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,24 +1464,27 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E35" s="3">
         <v>15900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10200</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E38" s="2">
         <v>43463</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43099</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,20 +1560,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E41" s="3">
         <v>21100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5800</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,21 +1617,24 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E43" s="3">
         <v>7100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6700</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1555,21 +1647,24 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>219400</v>
+      </c>
+      <c r="E44" s="3">
         <v>198300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>183000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,21 +1677,24 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E45" s="3">
         <v>13900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1609,21 +1707,24 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>270800</v>
+      </c>
+      <c r="E46" s="3">
         <v>240400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>207600</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1636,21 +1737,24 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E47" s="3">
         <v>13600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,21 +1767,24 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1096800</v>
+      </c>
+      <c r="E48" s="3">
         <v>304000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>277700</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1690,21 +1797,24 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>795700</v>
+      </c>
+      <c r="E49" s="3">
         <v>816800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>823600</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,21 +1887,24 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,21 +1947,24 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2185500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1376900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1317900</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,20 +2008,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E57" s="3">
         <v>98100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>95600</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,21 +2035,24 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>7300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5400</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,21 +2065,24 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E59" s="3">
         <v>45500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>30400</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,21 +2095,24 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>208600</v>
+      </c>
+      <c r="E60" s="3">
         <v>150900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>131300</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,21 +2125,24 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>453400</v>
+      </c>
+      <c r="E61" s="3">
         <v>850000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>705500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2013,21 +2155,24 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>778100</v>
+      </c>
+      <c r="E62" s="3">
         <v>76000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>53900</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,21 +2275,24 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1440100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1076900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>890700</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,21 +2439,24 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E72" s="3">
         <v>12400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23800</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,21 +2559,24 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>745400</v>
+      </c>
+      <c r="E76" s="3">
         <v>300000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>427100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E80" s="2">
         <v>43463</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43099</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,24 +2654,27 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E81" s="3">
         <v>15900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10200</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,23 +2701,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E83" s="3">
         <v>47100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>43200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,24 +2878,27 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>132800</v>
+      </c>
+      <c r="E89" s="3">
         <v>105800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>84700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>70900</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,23 +2925,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-97200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-64800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-71100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-58700</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,24 +3012,27 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-73600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-77800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65400</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,22 +3059,23 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-153600</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-86500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,24 +3176,27 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,9 +3206,12 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2988,24 +3236,27 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E102" s="3">
         <v>15300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GO_YR_FIN.xlsx
@@ -3069,13 +3069,13 @@
         <v>-3600</v>
       </c>
       <c r="E96" s="3">
-        <v>-153600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-86500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/GO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>GO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,41 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43463</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43099</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,27 +709,30 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3134600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2559600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2287700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2075500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1831500</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -738,27 +742,30 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2161300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1772500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1592300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1443600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1270400</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,27 +775,30 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>973300</v>
+      </c>
+      <c r="E10" s="3">
         <v>787100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>695400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>631900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>561200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,9 +808,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,26 +889,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>5600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -902,27 +922,30 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E15" s="3">
         <v>89600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>45400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>43200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>37200</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -932,9 +955,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,26 +970,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3027500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2496900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2210400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1767500</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,27 +1000,30 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E18" s="3">
         <v>62700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>77200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>75500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>64100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,9 +1033,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,26 +1051,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-55400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-49700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-47100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,27 +1081,30 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E21" s="3">
         <v>114800</v>
-      </c>
-      <c r="E21" s="3">
-        <v>68900</v>
       </c>
       <c r="F21" s="3">
         <v>68900</v>
       </c>
       <c r="G21" s="3">
+        <v>68900</v>
+      </c>
+      <c r="H21" s="3">
         <v>54100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1077,18 +1114,21 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E22" s="3">
         <v>47900</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,27 +1147,30 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E23" s="3">
         <v>16800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16900</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,27 +1180,30 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6700</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,9 +1213,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,27 +1246,30 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E26" s="3">
         <v>15400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10200</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,27 +1279,30 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E27" s="3">
         <v>15400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10200</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,9 +1312,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1378,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,27 +1444,30 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>55400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>49700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>47100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,27 +1477,30 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E33" s="3">
         <v>15400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10200</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1437,9 +1510,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,27 +1543,30 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E35" s="3">
         <v>15400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10200</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1497,32 +1576,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43463</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43099</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1614,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,23 +1647,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>105300</v>
+      </c>
+      <c r="E41" s="3">
         <v>28100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5800</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,9 +1677,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,24 +1710,27 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E43" s="3">
         <v>9900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6700</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,24 +1743,27 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>245200</v>
+      </c>
+      <c r="E44" s="3">
         <v>219400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>198300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>183000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1680,24 +1776,27 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E45" s="3">
         <v>13500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,24 +1809,27 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E46" s="3">
         <v>270800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>240400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>207600</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,24 +1842,27 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E47" s="3">
         <v>20300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>13600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1770,24 +1875,27 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1275000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1096800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>304000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>277700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,24 +1908,27 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>796200</v>
+      </c>
+      <c r="E49" s="3">
         <v>795700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>816800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>823600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,9 +1941,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,24 +2007,27 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +2040,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,24 +2073,27 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2485600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2185500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1376900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1317900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,9 +2106,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,23 +2139,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E57" s="3">
         <v>119200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>98100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>95600</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,24 +2169,27 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5400</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,24 +2202,27 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>117400</v>
+      </c>
+      <c r="E59" s="3">
         <v>88800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,24 +2235,27 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>232600</v>
+      </c>
+      <c r="E60" s="3">
         <v>208600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>150900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>131300</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,24 +2268,27 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>454300</v>
+      </c>
+      <c r="E61" s="3">
         <v>453400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>850000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>705500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2158,24 +2301,27 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>876300</v>
+      </c>
+      <c r="E62" s="3">
         <v>778100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>76000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>53900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,9 +2334,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,24 +2433,27 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1563300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1440100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1076900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>890700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,9 +2466,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,24 +2613,27 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>135200</v>
+      </c>
+      <c r="E72" s="3">
         <v>28000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>23800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,9 +2646,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,24 +2745,27 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>922300</v>
+      </c>
+      <c r="E76" s="3">
         <v>745400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>427100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,9 +2778,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2811,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43463</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43099</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,27 +2849,30 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E81" s="3">
         <v>15400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10200</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2687,9 +2882,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,26 +2900,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E83" s="3">
         <v>50100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>47100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>43200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>37200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2930,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,27 +3095,30 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>181200</v>
+      </c>
+      <c r="E89" s="3">
         <v>132800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>105800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>84700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>70900</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2911,9 +3128,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,26 +3146,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-124900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-97200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-64800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-71100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-58700</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3176,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,27 +3242,30 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-108000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-73600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-77800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-65400</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,9 +3275,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,17 +3293,18 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3600</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3089,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,27 +3422,30 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,9 +3455,12 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3239,27 +3488,30 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E102" s="3">
         <v>7000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3521,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>GO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,44 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43463</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43099</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,30 +712,33 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3079600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3134600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2559600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2287700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2075500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1831500</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -745,30 +748,33 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2130800</v>
+      </c>
+      <c r="E9" s="3">
         <v>2161300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1772500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1592300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1443600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1270400</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,30 +784,33 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>948800</v>
+      </c>
+      <c r="E10" s="3">
         <v>973300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>787100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>695400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>631900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>561200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -811,9 +820,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,29 +908,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -925,30 +944,33 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E15" s="3">
         <v>55500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>89600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>45400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>43200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>37200</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -958,9 +980,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,29 +996,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2990500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3027500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2496900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2210400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1767500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,30 +1029,33 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>89100</v>
+      </c>
+      <c r="E18" s="3">
         <v>107200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>62700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>77200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>75500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>64100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,9 +1065,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,29 +1084,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-55400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-49700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-47100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,30 +1117,33 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>165400</v>
+      </c>
+      <c r="E21" s="3">
         <v>167000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>114800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>68900</v>
       </c>
       <c r="G21" s="3">
         <v>68900</v>
       </c>
       <c r="H21" s="3">
+        <v>68900</v>
+      </c>
+      <c r="I21" s="3">
         <v>54100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1117,21 +1153,24 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E22" s="3">
         <v>21800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>47900</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,30 +1189,33 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E23" s="3">
         <v>87100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16900</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,30 +1225,33 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-19600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6700</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,9 +1261,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,30 +1297,33 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E26" s="3">
         <v>106700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10200</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1282,30 +1333,33 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E27" s="3">
         <v>106700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1315,9 +1369,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,30 +1513,33 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>55400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>49700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>47100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1480,30 +1549,33 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E33" s="3">
         <v>106700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10200</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1513,9 +1585,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,30 +1621,33 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E35" s="3">
         <v>106700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10200</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1579,35 +1657,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43463</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43099</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1617,9 +1698,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,26 +1733,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E41" s="3">
         <v>105300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5800</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1680,9 +1766,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1713,27 +1802,30 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E43" s="3">
         <v>11400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,27 +1838,30 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>275500</v>
+      </c>
+      <c r="E44" s="3">
         <v>245200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>219400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>198300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>183000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,27 +1874,30 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E45" s="3">
         <v>20100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,27 +1910,30 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>442700</v>
+      </c>
+      <c r="E46" s="3">
         <v>382000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>270800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>240400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>207600</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,27 +1946,30 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E47" s="3">
         <v>27400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>13600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,27 +1982,30 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1404400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1275000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1096800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>304000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>277700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1911,27 +2018,30 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>799900</v>
+      </c>
+      <c r="E49" s="3">
         <v>796200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>795700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>816800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>823600</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,9 +2054,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,27 +2126,30 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>5000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,9 +2162,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,27 +2198,30 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2669800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2485600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2185500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1376900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1317900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2109,9 +2234,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,26 +2269,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E57" s="3">
         <v>114300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>119200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>98100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>95600</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2172,27 +2302,30 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2205,27 +2338,30 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>114500</v>
+      </c>
+      <c r="E59" s="3">
         <v>117400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>88800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,27 +2374,30 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>237900</v>
+      </c>
+      <c r="E60" s="3">
         <v>232600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>208600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>150900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>131300</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2271,27 +2410,30 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>457100</v>
+      </c>
+      <c r="E61" s="3">
         <v>454300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>453400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>850000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>705500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2304,27 +2446,30 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>965500</v>
+      </c>
+      <c r="E62" s="3">
         <v>876300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>778100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>76000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>53900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2337,9 +2482,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,27 +2590,30 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1660500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1563300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1440100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1076900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>890700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,9 +2626,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,27 +2786,30 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>197500</v>
+      </c>
+      <c r="E72" s="3">
         <v>135200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>28000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>23800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,9 +2822,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,27 +2930,30 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1009300</v>
+      </c>
+      <c r="E76" s="3">
         <v>922300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>745400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>427100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2781,9 +2966,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,35 +3002,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43463</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43099</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2852,30 +3043,33 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E81" s="3">
         <v>106700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10200</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2885,9 +3079,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,29 +3098,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E83" s="3">
         <v>58100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>50100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>47100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,9 +3131,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,30 +3311,33 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>165600</v>
+      </c>
+      <c r="E89" s="3">
         <v>181200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>132800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>105800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>84700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>70900</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3131,9 +3347,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,29 +3366,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-124900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-97200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-64800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-71100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-58700</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,9 +3399,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,30 +3471,33 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-136700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-133800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-108000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-73600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-77800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-65400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,9 +3507,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,20 +3526,21 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3600</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3326,9 +3559,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,30 +3667,33 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E100" s="3">
         <v>29800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3458,9 +3703,12 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3491,30 +3739,33 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E102" s="3">
         <v>77200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3524,7 +3775,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>GO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,48 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43099</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,33 +716,36 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3578100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3079600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3134600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2559600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2287700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2075500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1831500</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,33 +755,36 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2486000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2130800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2161300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1772500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1592300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1443600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1270400</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,33 +794,36 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1092100</v>
+      </c>
+      <c r="E10" s="3">
         <v>948800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>973300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>787100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>695400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>631900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>561200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,9 +833,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,9 +889,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,32 +928,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -947,33 +967,36 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E15" s="3">
         <v>68400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>55500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>89600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>45400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>43200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>37200</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -983,9 +1006,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,32 +1023,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3484400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2990500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3027500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2496900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2210400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1767500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1032,33 +1059,36 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E18" s="3">
         <v>89100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>107200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>62700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>77200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>75500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>64100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1068,9 +1098,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,32 +1118,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-55400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-49700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-47100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1120,33 +1154,36 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>175300</v>
+      </c>
+      <c r="E21" s="3">
         <v>165400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>167000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>114800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>68900</v>
       </c>
       <c r="H21" s="3">
         <v>68900</v>
       </c>
       <c r="I21" s="3">
+        <v>68900</v>
+      </c>
+      <c r="J21" s="3">
         <v>54100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1156,24 +1193,27 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E22" s="3">
         <v>16800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>47900</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1192,33 +1232,36 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E23" s="3">
         <v>77500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>87100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>25800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16900</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1228,33 +1271,36 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E24" s="3">
         <v>15200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-19600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6700</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,9 +1310,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,33 +1349,36 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E26" s="3">
         <v>62300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>106700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10200</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1336,33 +1388,36 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E27" s="3">
         <v>62300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>106700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10200</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1372,9 +1427,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1466,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1444,9 +1505,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1544,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,33 +1583,36 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>55400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>49700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>47100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1552,33 +1622,36 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E33" s="3">
         <v>62300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>106700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10200</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1588,9 +1661,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,33 +1700,36 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E35" s="3">
         <v>62300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>106700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10200</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1660,38 +1739,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43099</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1701,9 +1783,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1803,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,29 +1820,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E41" s="3">
         <v>140100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>105300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5800</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1769,9 +1856,12 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1805,30 +1895,33 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E43" s="3">
         <v>10400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1841,30 +1934,33 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>334300</v>
+      </c>
+      <c r="E44" s="3">
         <v>275500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>245200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>219400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>198300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>183000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,30 +1973,33 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E45" s="3">
         <v>16800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1913,30 +2012,33 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>467400</v>
+      </c>
+      <c r="E46" s="3">
         <v>442700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>382000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>270800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>240400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>207600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,30 +2051,33 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E47" s="3">
         <v>21500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>27400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>13600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,30 +2090,33 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1468700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1404400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1275000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1096800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>304000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>277700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,30 +2129,33 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>811900</v>
+      </c>
+      <c r="E49" s="3">
         <v>799900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>796200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>795700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>816800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>823600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2057,9 +2168,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2207,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,30 +2246,33 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,9 +2285,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,30 +2324,33 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2772400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2669800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2485600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2185500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1376900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1317900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,9 +2363,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2383,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,29 +2400,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>137600</v>
+      </c>
+      <c r="E57" s="3">
         <v>122100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>114300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>119200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>98100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>95600</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2305,9 +2436,12 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2315,20 +2449,20 @@
         <v>1300</v>
       </c>
       <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2341,30 +2475,33 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E59" s="3">
         <v>114500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>117400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>88800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2377,30 +2514,33 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>280500</v>
+      </c>
+      <c r="E60" s="3">
         <v>237900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>232600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>208600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>150900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>131300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,30 +2553,33 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>384100</v>
+      </c>
+      <c r="E61" s="3">
         <v>457100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>454300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>453400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>850000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>705500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2449,30 +2592,33 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>997600</v>
+      </c>
+      <c r="E62" s="3">
         <v>965500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>876300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>778100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>76000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>53900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2485,9 +2631,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2670,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2709,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,30 +2748,33 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1662200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1660500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1563300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1440100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1076900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>890700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2629,9 +2787,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2807,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2843,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2882,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2921,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,30 +2960,33 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>262500</v>
+      </c>
+      <c r="E72" s="3">
         <v>197500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>135200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>28000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2825,9 +2999,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3038,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3077,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,30 +3116,33 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1110200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1009300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>922300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>745400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>427100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,9 +3155,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,38 +3194,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43099</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3046,33 +3238,36 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E81" s="3">
         <v>62300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>106700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10200</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3082,9 +3277,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,32 +3297,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E83" s="3">
         <v>71100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>58100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>50100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>47100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3134,9 +3333,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3372,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3411,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3450,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3489,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,33 +3528,36 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>185500</v>
+      </c>
+      <c r="E89" s="3">
         <v>165600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>181200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>132800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>105800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>84700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>70900</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3350,9 +3567,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,32 +3587,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-130500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-123400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-124900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-97200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-64800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-71100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-58700</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3402,9 +3623,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3662,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,33 +3701,36 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-149900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-136700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-133800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-108000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-73600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-77800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-65400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3510,9 +3740,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,23 +3760,24 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3562,9 +3796,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3835,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3874,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,33 +3913,36 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-72900</v>
+      </c>
+      <c r="E100" s="3">
         <v>5900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>29800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3706,9 +3952,12 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3742,33 +3991,36 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E102" s="3">
         <v>34800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>77200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3778,7 +4030,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
